--- a/UAK_3/заказ/JLCSMT_UAK_3A_N5_BOM1.xlsx
+++ b/UAK_3/заказ/JLCSMT_UAK_3A_N5_BOM1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="UAK_3A_N5" sheetId="2" r:id="rId1"/>
     <sheet name="sample" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">    C2</t>
   </si>
   <si>
-    <t xml:space="preserve">C313070 </t>
-  </si>
-  <si>
     <t xml:space="preserve">    C7</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t xml:space="preserve">    DD1</t>
   </si>
   <si>
-    <t xml:space="preserve">C457671 </t>
-  </si>
-  <si>
     <t xml:space="preserve">    G2</t>
   </si>
   <si>
@@ -163,51 +157,24 @@
     <t xml:space="preserve">    R3</t>
   </si>
   <si>
-    <t>C336847</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R4</t>
   </si>
   <si>
-    <t>C406994</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R17</t>
   </si>
   <si>
-    <t>C830401</t>
-  </si>
-  <si>
-    <t>C510290</t>
-  </si>
-  <si>
-    <t>C101310</t>
-  </si>
-  <si>
     <t xml:space="preserve">    RP1</t>
   </si>
   <si>
-    <t>C36376</t>
-  </si>
-  <si>
     <t xml:space="preserve">    VD1</t>
   </si>
   <si>
-    <t>C35501</t>
-  </si>
-  <si>
     <t xml:space="preserve">    VD2</t>
   </si>
   <si>
-    <t>C14308</t>
-  </si>
-  <si>
     <t>IRLML6344TR</t>
   </si>
   <si>
-    <t>C693370</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C1</t>
   </si>
   <si>
@@ -394,7 +361,40 @@
     <t>1kΩ</t>
   </si>
   <si>
-    <t>10K Variable Resistors</t>
+    <t>C110548</t>
+  </si>
+  <si>
+    <t>C23350</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>C25459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4410 </t>
+  </si>
+  <si>
+    <t>C50895</t>
+  </si>
+  <si>
+    <t>50K Variable Resistors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23654 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22808 </t>
+  </si>
+  <si>
+    <t>C8545</t>
+  </si>
+  <si>
+    <t>C68978</t>
+  </si>
+  <si>
+    <t>C78395</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,9 +822,9 @@
         <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="5">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,12 +841,12 @@
         <v>100nF 50V</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -866,17 +866,17 @@
         <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,12 +885,12 @@
         <v>100nF 50V</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -907,12 +907,12 @@
         <v>100nF 50V</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5">
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,12 +929,12 @@
         <v>100nF 50V</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -951,12 +951,12 @@
         <v>100nF 50V</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -973,20 +973,20 @@
         <v>22nF 1kV</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,20 +995,20 @@
         <v>10uF 10V</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,20 +1017,20 @@
         <v>10uF 10V</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,20 +1039,20 @@
         <v>10uF 10V</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,20 +1061,20 @@
         <v>10uF 10V</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,20 +1083,20 @@
         <v>M74VHC1GT125DT1G</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1105,20 +1105,20 @@
         <v>SC1117-3.3V</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,20 +1127,20 @@
         <v>240Ω</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,20 +1149,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,20 +1171,20 @@
         <v>150Ω</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,20 +1193,20 @@
         <v>130Ω</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,20 +1215,20 @@
         <v>240Ω</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>38</v>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1237,20 +1237,20 @@
         <v>240Ω</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,20 +1259,20 @@
         <v>240Ω</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>38</v>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,20 +1281,20 @@
         <v>240Ω</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>38</v>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1303,20 +1303,20 @@
         <v>240Ω</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>38</v>
+      <c r="D24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1325,20 +1325,20 @@
         <v>240Ω</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>38</v>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,20 +1347,20 @@
         <v>240Ω</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>38</v>
+      <c r="D26" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1369,20 +1369,20 @@
         <v>240Ω</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>38</v>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1391,20 +1391,20 @@
         <v>240Ω</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>38</v>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1413,20 +1413,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>37</v>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,20 +1435,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>37</v>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,20 +1457,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>37</v>
+      <c r="D31" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,20 +1479,20 @@
         <v>1kΩ</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1501,20 +1501,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>37</v>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1523,20 +1523,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>37</v>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,20 +1545,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>37</v>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1567,20 +1567,20 @@
         <v>10kΩ</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>37</v>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1589,20 +1589,20 @@
         <v>240Ω</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>38</v>
+      <c r="D37" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1611,20 +1611,20 @@
         <v>240Ω</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>38</v>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1633,20 +1633,20 @@
         <v>240Ω</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>38</v>
+      <c r="D39" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1655,42 +1655,42 @@
         <v>240Ω</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>38</v>
+      <c r="D40" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>10K Variable Resistors</v>
+        <v>50K Variable Resistors</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,20 +1699,20 @@
         <v>MDD SS24B</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1721,20 +1721,20 @@
         <v>BAT54CLT1G</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>44</v>
+        <v>87</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1743,20 +1743,20 @@
         <v>IRLML6344TR</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1765,20 +1765,20 @@
         <v>IRLML6344TR</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1787,20 +1787,20 @@
         <v>IRLML6344TR</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,20 +1809,20 @@
         <v>IRLML6344TR</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
